--- a/docentes/Duran Amezcua Maria Angelica Estadisticos 2020.xlsx
+++ b/docentes/Duran Amezcua Maria Angelica Estadisticos 2020.xlsx
@@ -1141,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1164,7 +1164,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1187,7 +1187,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1210,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1233,7 +1233,7 @@
         <v>15</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1256,7 +1256,7 @@
         <v>15</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1279,7 +1279,7 @@
         <v>15</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1302,7 +1302,7 @@
         <v>15</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
